--- a/data-folder/Données_groupe_03.xlsx
+++ b/data-folder/Données_groupe_03.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jean\MIASHS\Projet\Fichiers_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jean\MIASHS\Projet\Fichiers_2025new\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18570" windowHeight="8505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="données03" sheetId="2" r:id="rId1"/>
@@ -531,13 +531,13 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>76.86</v>
+        <v>8.09</v>
       </c>
       <c r="B19">
         <v>138</v>
       </c>
       <c r="C19">
-        <v>172</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -597,13 +597,13 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>14.87</v>
+        <v>9.34</v>
       </c>
       <c r="B25">
         <v>121</v>
       </c>
       <c r="C25">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -619,13 +619,13 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>9.81</v>
+        <v>6.2700000000000005</v>
       </c>
       <c r="B27">
         <v>125</v>
       </c>
       <c r="C27">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -674,24 +674,24 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>24.36</v>
+        <v>11.01</v>
       </c>
       <c r="B32">
         <v>127</v>
       </c>
       <c r="C32">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>19.170000000000002</v>
+        <v>15.39</v>
       </c>
       <c r="B33">
         <v>115</v>
       </c>
       <c r="C33">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -740,35 +740,35 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>59.5</v>
+        <v>31.319999999999997</v>
       </c>
       <c r="B38">
         <v>120</v>
       </c>
       <c r="C38">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>84.11999999999999</v>
+        <v>64.239999999999995</v>
       </c>
       <c r="B39">
         <v>110</v>
       </c>
       <c r="C39">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>37.04</v>
+        <v>14.219999999999999</v>
       </c>
       <c r="B40">
         <v>126</v>
       </c>
       <c r="C40">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
